--- a/data/rice/rice_price_tidy.xlsx
+++ b/data/rice/rice_price_tidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natty\Documents\github\price_transmission\data\rice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\data\rice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46265404-2A12-471E-8001-BE9B625D7DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD37FB87-F190-49F7-B93E-171B1755DD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="price" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1070000]d/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1070000]d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -267,6 +267,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -277,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,21 +339,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,15 +653,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
     <col min="2" max="37" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -766,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>32509</v>
       </c>
@@ -810,7 +820,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>32540</v>
       </c>
@@ -860,7 +870,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>32568</v>
       </c>
@@ -910,7 +920,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>32599</v>
       </c>
@@ -957,7 +967,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>32629</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>32660</v>
       </c>
@@ -1051,7 +1061,7 @@
         <v>3668</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>32690</v>
       </c>
@@ -1095,7 +1105,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>32721</v>
       </c>
@@ -1139,7 +1149,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>32752</v>
       </c>
@@ -1183,7 +1193,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>32782</v>
       </c>
@@ -1227,7 +1237,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>32813</v>
       </c>
@@ -1271,7 +1281,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>32843</v>
       </c>
@@ -1318,7 +1328,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>32874</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>32905</v>
       </c>
@@ -1412,7 +1422,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>32933</v>
       </c>
@@ -1456,7 +1466,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>32964</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>32994</v>
       </c>
@@ -1544,7 +1554,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>33025</v>
       </c>
@@ -1588,7 +1598,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>33055</v>
       </c>
@@ -1632,7 +1642,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>33086</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>33117</v>
       </c>
@@ -1723,7 +1733,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>33147</v>
       </c>
@@ -1767,7 +1777,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>33178</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>33208</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>33239</v>
       </c>
@@ -1899,7 +1909,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>33270</v>
       </c>
@@ -1937,7 +1947,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>33298</v>
       </c>
@@ -1981,7 +1991,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>33329</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>33359</v>
       </c>
@@ -2063,7 +2073,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>33390</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>33420</v>
       </c>
@@ -2127,7 +2137,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>33451</v>
       </c>
@@ -2159,7 +2169,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33482</v>
       </c>
@@ -2191,7 +2201,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33512</v>
       </c>
@@ -2223,7 +2233,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33543</v>
       </c>
@@ -2255,7 +2265,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>33573</v>
       </c>
@@ -2290,7 +2300,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>33604</v>
       </c>
@@ -2334,7 +2344,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>33635</v>
       </c>
@@ -2378,7 +2388,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>33664</v>
       </c>
@@ -2422,7 +2432,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>33695</v>
       </c>
@@ -2460,7 +2470,7 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>33725</v>
       </c>
@@ -2504,7 +2514,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>33756</v>
       </c>
@@ -2545,7 +2555,7 @@
         <v>4011</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>33786</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>33817</v>
       </c>
@@ -2609,7 +2619,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>33848</v>
       </c>
@@ -2641,7 +2651,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>33878</v>
       </c>
@@ -2673,7 +2683,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>33909</v>
       </c>
@@ -2714,7 +2724,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>33939</v>
       </c>
@@ -2755,7 +2765,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>33970</v>
       </c>
@@ -2817,7 +2827,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>34001</v>
       </c>
@@ -2876,7 +2886,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>34029</v>
       </c>
@@ -2935,7 +2945,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>34060</v>
       </c>
@@ -2994,7 +3004,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>34090</v>
       </c>
@@ -3053,7 +3063,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>34121</v>
       </c>
@@ -3112,7 +3122,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>34151</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>34182</v>
       </c>
@@ -3218,7 +3228,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>34213</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>34243</v>
       </c>
@@ -3330,7 +3340,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>34274</v>
       </c>
@@ -3389,7 +3399,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>34304</v>
       </c>
@@ -3451,7 +3461,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>34335</v>
       </c>
@@ -3513,7 +3523,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>34366</v>
       </c>
@@ -3575,7 +3585,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>34394</v>
       </c>
@@ -3619,7 +3629,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>34425</v>
       </c>
@@ -3675,7 +3685,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>34455</v>
       </c>
@@ -3731,7 +3741,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>34486</v>
       </c>
@@ -3787,7 +3797,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>34516</v>
       </c>
@@ -3843,7 +3853,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>34547</v>
       </c>
@@ -3899,7 +3909,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>34578</v>
       </c>
@@ -3958,7 +3968,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>34608</v>
       </c>
@@ -4017,7 +4027,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>34639</v>
       </c>
@@ -4076,7 +4086,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>34669</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>34700</v>
       </c>
@@ -4194,7 +4204,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>34731</v>
       </c>
@@ -4253,7 +4263,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>34759</v>
       </c>
@@ -4312,7 +4322,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>34790</v>
       </c>
@@ -4368,7 +4378,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>34820</v>
       </c>
@@ -4427,7 +4437,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>34851</v>
       </c>
@@ -4483,7 +4493,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>34881</v>
       </c>
@@ -4539,7 +4549,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>34912</v>
       </c>
@@ -4598,7 +4608,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>34943</v>
       </c>
@@ -4657,7 +4667,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>34973</v>
       </c>
@@ -4716,7 +4726,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>35004</v>
       </c>
@@ -4772,7 +4782,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>35034</v>
       </c>
@@ -4831,7 +4841,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>35065</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>4068</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>35096</v>
       </c>
@@ -4949,7 +4959,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>35125</v>
       </c>
@@ -5008,7 +5018,7 @@
         <v>4347</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>35156</v>
       </c>
@@ -5070,7 +5080,7 @@
         <v>4483</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>35186</v>
       </c>
@@ -5126,7 +5136,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>35217</v>
       </c>
@@ -5185,7 +5195,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>35247</v>
       </c>
@@ -5244,7 +5254,7 @@
         <v>4791</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>35278</v>
       </c>
@@ -5303,7 +5313,7 @@
         <v>4958</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>35309</v>
       </c>
@@ -5362,7 +5372,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>35339</v>
       </c>
@@ -5421,7 +5431,7 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>35370</v>
       </c>
@@ -5474,7 +5484,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>35400</v>
       </c>
@@ -5533,7 +5543,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>35431</v>
       </c>
@@ -5604,7 +5614,7 @@
         <v>5306</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>35462</v>
       </c>
@@ -5675,7 +5685,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>35490</v>
       </c>
@@ -5746,7 +5756,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>35521</v>
       </c>
@@ -5817,7 +5827,7 @@
         <v>6490</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>35551</v>
       </c>
@@ -5888,7 +5898,7 @@
         <v>6289</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>35582</v>
       </c>
@@ -5956,7 +5966,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>35612</v>
       </c>
@@ -6024,7 +6034,7 @@
         <v>6185</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>35643</v>
       </c>
@@ -6086,7 +6096,7 @@
         <v>6780</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>35674</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>35704</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>35735</v>
       </c>
@@ -6269,7 +6279,7 @@
         <v>6420</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>35765</v>
       </c>
@@ -6340,7 +6350,7 @@
         <v>6410</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>35796</v>
       </c>
@@ -6411,7 +6421,7 @@
         <v>7420</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>35827</v>
       </c>
@@ -6479,7 +6489,7 @@
         <v>7160</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>35855</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>6355</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>35886</v>
       </c>
@@ -6612,7 +6622,7 @@
         <v>6560</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>35916</v>
       </c>
@@ -6677,7 +6687,7 @@
         <v>6983</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>35947</v>
       </c>
@@ -6742,7 +6752,7 @@
         <v>6983</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>35977</v>
       </c>
@@ -6807,7 +6817,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>36008</v>
       </c>
@@ -6872,7 +6882,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>36039</v>
       </c>
@@ -6937,7 +6947,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>36069</v>
       </c>
@@ -6999,7 +7009,7 @@
         <v>6325</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>36100</v>
       </c>
@@ -7067,7 +7077,7 @@
         <v>5960</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>36130</v>
       </c>
@@ -7135,7 +7145,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>36161</v>
       </c>
@@ -7206,7 +7216,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>36192</v>
       </c>
@@ -7277,7 +7287,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>36220</v>
       </c>
@@ -7348,7 +7358,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>36251</v>
       </c>
@@ -7416,7 +7426,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>36281</v>
       </c>
@@ -7481,7 +7491,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>36312</v>
       </c>
@@ -7549,7 +7559,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>36342</v>
       </c>
@@ -7617,7 +7627,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>36373</v>
       </c>
@@ -7685,7 +7695,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>36404</v>
       </c>
@@ -7750,7 +7760,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>36434</v>
       </c>
@@ -7815,7 +7825,7 @@
         <v>4975</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>36465</v>
       </c>
@@ -7883,7 +7893,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>36495</v>
       </c>
@@ -7954,7 +7964,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>36526</v>
       </c>
@@ -8025,7 +8035,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>36557</v>
       </c>
@@ -8096,7 +8106,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>36586</v>
       </c>
@@ -8167,7 +8177,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>36617</v>
       </c>
@@ -8238,7 +8248,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>36647</v>
       </c>
@@ -8306,7 +8316,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>36678</v>
       </c>
@@ -8374,7 +8384,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>36708</v>
       </c>
@@ -8442,7 +8452,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>36739</v>
       </c>
@@ -8507,7 +8517,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>36770</v>
       </c>
@@ -8572,7 +8582,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>36800</v>
       </c>
@@ -8637,7 +8647,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>36831</v>
       </c>
@@ -8708,7 +8718,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>36861</v>
       </c>
@@ -8779,7 +8789,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>36892</v>
       </c>
@@ -8850,7 +8860,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>36923</v>
       </c>
@@ -8921,7 +8931,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>36951</v>
       </c>
@@ -8992,7 +9002,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>36982</v>
       </c>
@@ -9063,7 +9073,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>37012</v>
       </c>
@@ -9134,7 +9144,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>37043</v>
       </c>
@@ -9205,7 +9215,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>37073</v>
       </c>
@@ -9276,7 +9286,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>37104</v>
       </c>
@@ -9347,7 +9357,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>37135</v>
       </c>
@@ -9418,7 +9428,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>37165</v>
       </c>
@@ -9489,7 +9499,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>37196</v>
       </c>
@@ -9557,7 +9567,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>37226</v>
       </c>
@@ -9625,7 +9635,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>37257</v>
       </c>
@@ -9705,7 +9715,7 @@
         <v>9461.3636363636397</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>37288</v>
       </c>
@@ -9782,7 +9792,7 @@
         <v>9287.5</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>37316</v>
       </c>
@@ -9859,7 +9869,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>37347</v>
       </c>
@@ -9936,7 +9946,7 @@
         <v>9676.3157894736905</v>
       </c>
     </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>37377</v>
       </c>
@@ -10013,7 +10023,7 @@
         <v>10402.631578947399</v>
       </c>
     </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>37408</v>
       </c>
@@ -10090,7 +10100,7 @@
         <v>10435</v>
       </c>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>37438</v>
       </c>
@@ -10164,7 +10174,7 @@
         <v>10816.666666666701</v>
       </c>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>37469</v>
       </c>
@@ -10238,7 +10248,7 @@
         <v>10950</v>
       </c>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>37500</v>
       </c>
@@ -10312,7 +10322,7 @@
         <v>11378.5714285714</v>
       </c>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>37530</v>
       </c>
@@ -10389,7 +10399,7 @@
         <v>11409.090909090901</v>
       </c>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>37561</v>
       </c>
@@ -10469,7 +10479,7 @@
         <v>11498</v>
       </c>
     </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>37591</v>
       </c>
@@ -10549,7 +10559,7 @@
         <v>10915.384615384601</v>
       </c>
     </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>37622</v>
       </c>
@@ -10638,7 +10648,7 @@
         <v>13956.294680000001</v>
       </c>
     </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>37653</v>
       </c>
@@ -10727,7 +10737,7 @@
         <v>12349.328100000001</v>
       </c>
     </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>37681</v>
       </c>
@@ -10813,7 +10823,7 @@
         <v>12381.578275</v>
       </c>
     </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>37712</v>
       </c>
@@ -10893,7 +10903,7 @@
         <v>12547.10015</v>
       </c>
     </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>37742</v>
       </c>
@@ -10970,7 +10980,7 @@
         <v>12809.39775</v>
       </c>
     </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>37773</v>
       </c>
@@ -11044,7 +11054,7 @@
         <v>12672.625249999999</v>
       </c>
     </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>37803</v>
       </c>
@@ -11118,7 +11128,7 @@
         <v>12838.246875000001</v>
       </c>
     </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>37834</v>
       </c>
@@ -11195,7 +11205,7 @@
         <v>13402.501249999999</v>
       </c>
     </row>
-    <row r="178" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>37865</v>
       </c>
@@ -11272,7 +11282,7 @@
         <v>14436.560750000001</v>
       </c>
     </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>37895</v>
       </c>
@@ -11349,7 +11359,7 @@
         <v>14724.2533</v>
       </c>
     </row>
-    <row r="180" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>37926</v>
       </c>
@@ -11429,7 +11439,7 @@
         <v>11656.298124999999</v>
       </c>
     </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>37956</v>
       </c>
@@ -11518,7 +11528,7 @@
         <v>13133.257600000001</v>
       </c>
     </row>
-    <row r="182" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>37987</v>
       </c>
@@ -11607,7 +11617,7 @@
         <v>14414.0723</v>
       </c>
     </row>
-    <row r="183" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>38018</v>
       </c>
@@ -11696,7 +11706,7 @@
         <v>14229.622025000001</v>
       </c>
     </row>
-    <row r="184" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>38047</v>
       </c>
@@ -11776,7 +11786,7 @@
         <v>14139.375275</v>
       </c>
     </row>
-    <row r="185" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>38078</v>
       </c>
@@ -11856,7 +11866,7 @@
         <v>14174.857099999999</v>
       </c>
     </row>
-    <row r="186" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>38108</v>
       </c>
@@ -11936,7 +11946,7 @@
         <v>14132.421549999999</v>
       </c>
     </row>
-    <row r="187" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>38139</v>
       </c>
@@ -12016,7 +12026,7 @@
         <v>13409.115750000001</v>
       </c>
     </row>
-    <row r="188" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>38169</v>
       </c>
@@ -12096,7 +12106,7 @@
         <v>13383.005349999999</v>
       </c>
     </row>
-    <row r="189" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>38200</v>
       </c>
@@ -12170,7 +12180,7 @@
         <v>13278.138825</v>
       </c>
     </row>
-    <row r="190" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>38231</v>
       </c>
@@ -12244,7 +12254,7 @@
         <v>12204.89365</v>
       </c>
     </row>
-    <row r="191" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>38261</v>
       </c>
@@ -12318,7 +12328,7 @@
         <v>12317.7943</v>
       </c>
     </row>
-    <row r="192" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>38292</v>
       </c>
@@ -12398,7 +12408,7 @@
         <v>12657.8478</v>
       </c>
     </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>38322</v>
       </c>
@@ -12484,7 +12494,7 @@
         <v>12569.114299999999</v>
       </c>
     </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>38353</v>
       </c>
@@ -12573,7 +12583,7 @@
         <v>12579.989449999999</v>
       </c>
     </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>38384</v>
       </c>
@@ -12662,7 +12672,7 @@
         <v>12560.721949999999</v>
       </c>
     </row>
-    <row r="196" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>38412</v>
       </c>
@@ -12748,7 +12758,7 @@
         <v>12541.6785</v>
       </c>
     </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>38443</v>
       </c>
@@ -12834,7 +12844,7 @@
         <v>12575.810533333301</v>
       </c>
     </row>
-    <row r="198" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>38473</v>
       </c>
@@ -12917,7 +12927,7 @@
         <v>12565.803</v>
       </c>
     </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>38504</v>
       </c>
@@ -13000,7 +13010,7 @@
         <v>12558.086450000001</v>
       </c>
     </row>
-    <row r="200" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>38534</v>
       </c>
@@ -13083,7 +13093,7 @@
         <v>12578.098625000001</v>
       </c>
     </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>38565</v>
       </c>
@@ -13166,7 +13176,7 @@
         <v>12601.875875</v>
       </c>
     </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>38596</v>
       </c>
@@ -13249,7 +13259,7 @@
         <v>13074.8256</v>
       </c>
     </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>38626</v>
       </c>
@@ -13329,7 +13339,7 @@
         <v>13054.909725</v>
       </c>
     </row>
-    <row r="204" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>38657</v>
       </c>
@@ -13415,7 +13425,7 @@
         <v>12922.1446</v>
       </c>
     </row>
-    <row r="205" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>38687</v>
       </c>
@@ -13507,7 +13517,7 @@
         <v>13071.9385</v>
       </c>
     </row>
-    <row r="206" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>38718</v>
       </c>
@@ -13599,7 +13609,7 @@
         <v>14129.766</v>
       </c>
     </row>
-    <row r="207" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>38749</v>
       </c>
@@ -13691,7 +13701,7 @@
         <v>14390.803674999999</v>
       </c>
     </row>
-    <row r="208" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>38777</v>
       </c>
@@ -13777,7 +13787,7 @@
         <v>14363.1378</v>
       </c>
     </row>
-    <row r="209" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>38808</v>
       </c>
@@ -13863,7 +13873,7 @@
         <v>12943.35475</v>
       </c>
     </row>
-    <row r="210" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>38838</v>
       </c>
@@ -13949,7 +13959,7 @@
         <v>14390.72155</v>
       </c>
     </row>
-    <row r="211" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>38869</v>
       </c>
@@ -14035,7 +14045,7 @@
         <v>15281.072174999999</v>
       </c>
     </row>
-    <row r="212" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>38899</v>
       </c>
@@ -14124,7 +14134,7 @@
         <v>18491.498524999999</v>
       </c>
     </row>
-    <row r="213" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>38930</v>
       </c>
@@ -14210,7 +14220,7 @@
         <v>19699.016175000001</v>
       </c>
     </row>
-    <row r="214" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>38961</v>
       </c>
@@ -14293,7 +14303,7 @@
         <v>19852.324975</v>
       </c>
     </row>
-    <row r="215" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>38991</v>
       </c>
@@ -14376,7 +14386,7 @@
         <v>20375.459875</v>
       </c>
     </row>
-    <row r="216" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>39022</v>
       </c>
@@ -14465,7 +14475,7 @@
         <v>20632.828275</v>
       </c>
     </row>
-    <row r="217" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>39052</v>
       </c>
@@ -14575,7 +14585,7 @@
         <v>20678.017875000001</v>
       </c>
     </row>
-    <row r="218" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>39083</v>
       </c>
@@ -14685,7 +14695,7 @@
         <v>21817.228149999999</v>
       </c>
     </row>
-    <row r="219" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>39114</v>
       </c>
@@ -14792,7 +14802,7 @@
         <v>22193.379525</v>
       </c>
     </row>
-    <row r="220" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>39142</v>
       </c>
@@ -14893,7 +14903,7 @@
         <v>22047.6675</v>
       </c>
     </row>
-    <row r="221" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>39173</v>
       </c>
@@ -14994,7 +15004,7 @@
         <v>20983.5448</v>
       </c>
     </row>
-    <row r="222" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>39203</v>
       </c>
@@ -15095,7 +15105,7 @@
         <v>23317.457375000002</v>
       </c>
     </row>
-    <row r="223" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>39234</v>
       </c>
@@ -15196,7 +15206,7 @@
         <v>24360.74325</v>
       </c>
     </row>
-    <row r="224" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>39264</v>
       </c>
@@ -15294,7 +15304,7 @@
         <v>24161.02075</v>
       </c>
     </row>
-    <row r="225" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>39295</v>
       </c>
@@ -15395,7 +15405,7 @@
         <v>25312.628100000002</v>
       </c>
     </row>
-    <row r="226" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>39326</v>
       </c>
@@ -15496,7 +15506,7 @@
         <v>26589.810150000001</v>
       </c>
     </row>
-    <row r="227" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>39356</v>
       </c>
@@ -15597,7 +15607,7 @@
         <v>26327.008875</v>
       </c>
     </row>
-    <row r="228" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>39387</v>
       </c>
@@ -15701,7 +15711,7 @@
         <v>21096.4048</v>
       </c>
     </row>
-    <row r="229" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>39417</v>
       </c>
@@ -15811,7 +15821,7 @@
         <v>19455.256174999999</v>
       </c>
     </row>
-    <row r="230" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>39448</v>
       </c>
@@ -15921,7 +15931,7 @@
         <v>17385.989225000001</v>
       </c>
     </row>
-    <row r="231" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>39479</v>
       </c>
@@ -16031,7 +16041,7 @@
         <v>17144.263475</v>
       </c>
     </row>
-    <row r="232" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>39508</v>
       </c>
@@ -16141,7 +16151,7 @@
         <v>18044.234974999999</v>
       </c>
     </row>
-    <row r="233" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>39539</v>
       </c>
@@ -16242,7 +16252,7 @@
         <v>24522.419300000001</v>
       </c>
     </row>
-    <row r="234" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>39569</v>
       </c>
@@ -16340,7 +16350,7 @@
         <v>24943.858325000001</v>
       </c>
     </row>
-    <row r="235" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>39600</v>
       </c>
@@ -16435,7 +16445,7 @@
         <v>22645.537499999999</v>
       </c>
     </row>
-    <row r="236" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>39630</v>
       </c>
@@ -16524,7 +16534,7 @@
         <v>20901.7886</v>
       </c>
     </row>
-    <row r="237" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>39661</v>
       </c>
@@ -16613,7 +16623,7 @@
         <v>19086.929274999999</v>
       </c>
     </row>
-    <row r="238" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>39692</v>
       </c>
@@ -16702,7 +16712,7 @@
         <v>17966.372074999999</v>
       </c>
     </row>
-    <row r="239" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>39722</v>
       </c>
@@ -16791,7 +16801,7 @@
         <v>15619.872100000001</v>
       </c>
     </row>
-    <row r="240" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>39753</v>
       </c>
@@ -16892,7 +16902,7 @@
         <v>15745.6585</v>
       </c>
     </row>
-    <row r="241" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>39783</v>
       </c>
@@ -16996,7 +17006,7 @@
         <v>16980.517175000001</v>
       </c>
     </row>
-    <row r="242" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>39814</v>
       </c>
@@ -17100,7 +17110,7 @@
         <v>17749.0889333333</v>
       </c>
     </row>
-    <row r="243" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>39845</v>
       </c>
@@ -17204,7 +17214,7 @@
         <v>17945.072325000001</v>
       </c>
     </row>
-    <row r="244" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>39873</v>
       </c>
@@ -17305,7 +17315,7 @@
         <v>17957.36895</v>
       </c>
     </row>
-    <row r="245" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>39904</v>
       </c>
@@ -17406,7 +17416,7 @@
         <v>16945.8393</v>
       </c>
     </row>
-    <row r="246" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>39934</v>
       </c>
@@ -17507,7 +17517,7 @@
         <v>16182.40055</v>
       </c>
     </row>
-    <row r="247" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>39965</v>
       </c>
@@ -17599,7 +17609,7 @@
         <v>15935.250024999999</v>
       </c>
     </row>
-    <row r="248" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>39995</v>
       </c>
@@ -17688,7 +17698,7 @@
         <v>16018.174375000001</v>
       </c>
     </row>
-    <row r="249" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>40026</v>
       </c>
@@ -17777,7 +17787,7 @@
         <v>16152.577649999999</v>
       </c>
     </row>
-    <row r="250" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>40057</v>
       </c>
@@ -17869,7 +17879,7 @@
         <v>16435.948075</v>
       </c>
     </row>
-    <row r="251" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>40087</v>
       </c>
@@ -17961,7 +17971,7 @@
         <v>16809.884600000001</v>
       </c>
     </row>
-    <row r="252" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>40118</v>
       </c>
@@ -18065,7 +18075,7 @@
         <v>19342.331699999999</v>
       </c>
     </row>
-    <row r="253" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>40148</v>
       </c>
@@ -18169,7 +18179,7 @@
         <v>25578.100600000002</v>
       </c>
     </row>
-    <row r="254" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>40179</v>
       </c>
@@ -18273,7 +18283,7 @@
         <v>25543.026300000001</v>
       </c>
     </row>
-    <row r="255" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>40210</v>
       </c>
@@ -18371,7 +18381,7 @@
         <v>24296.1636</v>
       </c>
     </row>
-    <row r="256" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>40238</v>
       </c>
@@ -18460,7 +18470,7 @@
         <v>23695.208200000001</v>
       </c>
     </row>
-    <row r="257" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>40269</v>
       </c>
@@ -18549,7 +18559,7 @@
         <v>24898.940233333298</v>
       </c>
     </row>
-    <row r="258" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>40299</v>
       </c>
@@ -18638,7 +18648,7 @@
         <v>26039.06005</v>
       </c>
     </row>
-    <row r="259" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>40330</v>
       </c>
@@ -18727,7 +18737,7 @@
         <v>26067.45895</v>
       </c>
     </row>
-    <row r="260" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>40360</v>
       </c>
@@ -18816,7 +18826,7 @@
         <v>29871.174824999998</v>
       </c>
     </row>
-    <row r="261" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>40391</v>
       </c>
@@ -18905,7 +18915,7 @@
         <v>31647.892875000001</v>
       </c>
     </row>
-    <row r="262" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>40422</v>
       </c>
@@ -18994,7 +19004,7 @@
         <v>31886.74555</v>
       </c>
     </row>
-    <row r="263" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>40452</v>
       </c>
@@ -19083,7 +19093,7 @@
         <v>32614.065966666702</v>
       </c>
     </row>
-    <row r="264" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>40483</v>
       </c>
@@ -19187,7 +19197,7 @@
         <v>32676.210050000002</v>
       </c>
     </row>
-    <row r="265" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>40513</v>
       </c>
@@ -19291,7 +19301,7 @@
         <v>29830.973525000001</v>
       </c>
     </row>
-    <row r="266" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>40544</v>
       </c>
@@ -19392,7 +19402,7 @@
         <v>29581.767274999998</v>
       </c>
     </row>
-    <row r="267" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>40575</v>
       </c>
@@ -19484,7 +19494,7 @@
         <v>30105.682175000002</v>
       </c>
     </row>
-    <row r="268" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>40603</v>
       </c>
@@ -19576,7 +19586,7 @@
         <v>31149.1986666667</v>
       </c>
     </row>
-    <row r="269" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>40634</v>
       </c>
@@ -19668,7 +19678,7 @@
         <v>30368.531175</v>
       </c>
     </row>
-    <row r="270" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>40664</v>
       </c>
@@ -19760,7 +19770,7 @@
         <v>28997.245650000001</v>
       </c>
     </row>
-    <row r="271" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>40695</v>
       </c>
@@ -19855,7 +19865,7 @@
         <v>29425.656374999999</v>
       </c>
     </row>
-    <row r="272" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>40725</v>
       </c>
@@ -19947,7 +19957,7 @@
         <v>30935.250250000001</v>
       </c>
     </row>
-    <row r="273" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>40756</v>
       </c>
@@ -20039,7 +20049,7 @@
         <v>31480.641625</v>
       </c>
     </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>40787</v>
       </c>
@@ -20131,7 +20141,7 @@
         <v>31473.812750000001</v>
       </c>
     </row>
-    <row r="275" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>40817</v>
       </c>
@@ -20223,7 +20233,7 @@
         <v>31173.548299999999</v>
       </c>
     </row>
-    <row r="276" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>40848</v>
       </c>
@@ -20324,7 +20334,7 @@
         <v>29776.346575</v>
       </c>
     </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>40878</v>
       </c>
@@ -20428,7 +20438,7 @@
         <v>28197.628049999999</v>
       </c>
     </row>
-    <row r="278" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>40909</v>
       </c>
@@ -20535,7 +20545,7 @@
         <v>27857.115409999999</v>
       </c>
     </row>
-    <row r="279" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>40940</v>
       </c>
@@ -20639,7 +20649,7 @@
         <v>27708.061275</v>
       </c>
     </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>40969</v>
       </c>
@@ -20737,7 +20747,7 @@
         <v>26445.892349999998</v>
       </c>
     </row>
-    <row r="281" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>41000</v>
       </c>
@@ -20835,7 +20845,7 @@
         <v>23788.127475000001</v>
       </c>
     </row>
-    <row r="282" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>41030</v>
       </c>
@@ -20933,7 +20943,7 @@
         <v>24136.841874999998</v>
       </c>
     </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>41061</v>
       </c>
@@ -21031,7 +21041,7 @@
         <v>24706.728050000002</v>
       </c>
     </row>
-    <row r="284" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>41091</v>
       </c>
@@ -21129,7 +21139,7 @@
         <v>24684.363850000002</v>
       </c>
     </row>
-    <row r="285" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>41122</v>
       </c>
@@ -21224,7 +21234,7 @@
         <v>24520.631519999999</v>
       </c>
     </row>
-    <row r="286" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>41153</v>
       </c>
@@ -21319,7 +21329,7 @@
         <v>24683.743774999999</v>
       </c>
     </row>
-    <row r="287" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>41183</v>
       </c>
@@ -21414,7 +21424,7 @@
         <v>24263.11045</v>
       </c>
     </row>
-    <row r="288" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>41214</v>
       </c>
@@ -21512,7 +21522,7 @@
         <v>24152.823175000001</v>
       </c>
     </row>
-    <row r="289" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>41244</v>
       </c>
@@ -21610,7 +21620,7 @@
         <v>24411.983649999998</v>
       </c>
     </row>
-    <row r="290" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>41275</v>
       </c>
@@ -21705,7 +21715,7 @@
         <v>26972.252649999999</v>
       </c>
     </row>
-    <row r="291" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>41306</v>
       </c>
@@ -21800,7 +21810,7 @@
         <v>27188.017650000002</v>
       </c>
     </row>
-    <row r="292" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>41334</v>
       </c>
@@ -21895,7 +21905,7 @@
         <v>26651.510249999999</v>
       </c>
     </row>
-    <row r="293" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>41365</v>
       </c>
@@ -21993,7 +22003,7 @@
         <v>26746.0713</v>
       </c>
     </row>
-    <row r="294" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>41395</v>
       </c>
@@ -22103,7 +22113,7 @@
         <v>28396.185925000002</v>
       </c>
     </row>
-    <row r="295" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>41426</v>
       </c>
@@ -22201,7 +22211,7 @@
         <v>28988.081425</v>
       </c>
     </row>
-    <row r="296" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>41456</v>
       </c>
@@ -22296,7 +22306,7 @@
         <v>28808.0268</v>
       </c>
     </row>
-    <row r="297" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>41487</v>
       </c>
@@ -22391,7 +22401,7 @@
         <v>29811.479974999998</v>
       </c>
     </row>
-    <row r="298" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>41518</v>
       </c>
@@ -22486,7 +22496,7 @@
         <v>29627.857550000001</v>
       </c>
     </row>
-    <row r="299" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>41548</v>
       </c>
@@ -22581,7 +22591,7 @@
         <v>29726.125049999999</v>
       </c>
     </row>
-    <row r="300" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>41579</v>
       </c>
@@ -22682,7 +22692,7 @@
         <v>29644.358800000002</v>
       </c>
     </row>
-    <row r="301" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>41609</v>
       </c>
@@ -22789,7 +22799,7 @@
         <v>28873.262200000001</v>
       </c>
     </row>
-    <row r="302" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>41640</v>
       </c>
@@ -22896,7 +22906,7 @@
         <v>28213.78225</v>
       </c>
     </row>
-    <row r="303" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>41671</v>
       </c>
@@ -22991,7 +23001,7 @@
         <v>28275.142225</v>
       </c>
     </row>
-    <row r="304" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>41699</v>
       </c>
@@ -23086,7 +23096,7 @@
         <v>27947.910899999999</v>
       </c>
     </row>
-    <row r="305" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>41730</v>
       </c>
@@ -23181,7 +23191,7 @@
         <v>24273.1364666667</v>
       </c>
     </row>
-    <row r="306" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>41760</v>
       </c>
@@ -23276,7 +23286,7 @@
         <v>25877.583200000001</v>
       </c>
     </row>
-    <row r="307" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>41791</v>
       </c>
@@ -23371,7 +23381,7 @@
         <v>27272.760875</v>
       </c>
     </row>
-    <row r="308" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>41821</v>
       </c>
@@ -23466,7 +23476,7 @@
         <v>27333.138449999999</v>
       </c>
     </row>
-    <row r="309" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>41852</v>
       </c>
@@ -23561,7 +23571,7 @@
         <v>28355.360049999999</v>
       </c>
     </row>
-    <row r="310" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>41883</v>
       </c>
@@ -23656,7 +23666,7 @@
         <v>28313.756724999999</v>
       </c>
     </row>
-    <row r="311" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>41913</v>
       </c>
@@ -23751,7 +23761,7 @@
         <v>27257.698899999999</v>
       </c>
     </row>
-    <row r="312" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>41944</v>
       </c>
@@ -23849,7 +23859,7 @@
         <v>27271.294666666701</v>
       </c>
     </row>
-    <row r="313" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>41974</v>
       </c>
@@ -23956,7 +23966,7 @@
         <v>26040.238275</v>
       </c>
     </row>
-    <row r="314" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>42005</v>
       </c>
@@ -24063,7 +24073,7 @@
         <v>24757.844274999999</v>
       </c>
     </row>
-    <row r="315" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>42036</v>
       </c>
@@ -24167,7 +24177,7 @@
         <v>25279.308416666699</v>
       </c>
     </row>
-    <row r="316" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>42064</v>
       </c>
@@ -24271,7 +24281,7 @@
         <v>24518.326724999999</v>
       </c>
     </row>
-    <row r="317" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>42095</v>
       </c>
@@ -24375,7 +24385,7 @@
         <v>24168.090733333302</v>
       </c>
     </row>
-    <row r="318" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>42125</v>
       </c>
@@ -24479,7 +24489,7 @@
         <v>25543.604824999999</v>
       </c>
     </row>
-    <row r="319" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>42156</v>
       </c>
@@ -24583,7 +24593,7 @@
         <v>25038.9504375</v>
       </c>
     </row>
-    <row r="320" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>42186</v>
       </c>
@@ -24678,7 +24688,7 @@
         <v>26871.2853125</v>
       </c>
     </row>
-    <row r="321" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>42217</v>
       </c>
@@ -24773,7 +24783,7 @@
         <v>26503.3668875</v>
       </c>
     </row>
-    <row r="322" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>42248</v>
       </c>
@@ -24868,7 +24878,7 @@
         <v>26808.471975</v>
       </c>
     </row>
-    <row r="323" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>42278</v>
       </c>
@@ -24963,7 +24973,7 @@
         <v>27143.891787500001</v>
       </c>
     </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>42309</v>
       </c>
@@ -25058,7 +25068,7 @@
         <v>27432.824025000002</v>
       </c>
     </row>
-    <row r="325" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>42339</v>
       </c>
@@ -25162,7 +25172,7 @@
         <v>27135.268</v>
       </c>
     </row>
-    <row r="326" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>42370</v>
       </c>
@@ -25263,7 +25273,7 @@
         <v>28430.746412500001</v>
       </c>
     </row>
-    <row r="327" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>42401</v>
       </c>
@@ -25355,7 +25365,7 @@
         <v>28440.279399999999</v>
       </c>
     </row>
-    <row r="328" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>42430</v>
       </c>
@@ -25447,7 +25457,7 @@
         <v>28661.2729</v>
       </c>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>42461</v>
       </c>
@@ -25542,7 +25552,7 @@
         <v>29923.016116666699</v>
       </c>
     </row>
-    <row r="330" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>42491</v>
       </c>
@@ -25640,7 +25650,7 @@
         <v>30966.834083333299</v>
       </c>
     </row>
-    <row r="331" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>42522</v>
       </c>
@@ -25735,7 +25745,7 @@
         <v>29716.844387500001</v>
       </c>
     </row>
-    <row r="332" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>42552</v>
       </c>
@@ -25830,7 +25840,7 @@
         <v>29772.619833333301</v>
       </c>
     </row>
-    <row r="333" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>42583</v>
       </c>
@@ -25928,7 +25938,7 @@
         <v>28988.999325000001</v>
       </c>
     </row>
-    <row r="334" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>42614</v>
       </c>
@@ -26026,7 +26036,7 @@
         <v>29745.535875000001</v>
       </c>
     </row>
-    <row r="335" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>42644</v>
       </c>
@@ -26124,7 +26134,7 @@
         <v>27187.370212500002</v>
       </c>
     </row>
-    <row r="336" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>42675</v>
       </c>
@@ -26234,7 +26244,7 @@
         <v>25365.038850000001</v>
       </c>
     </row>
-    <row r="337" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>42705</v>
       </c>
@@ -26344,7 +26354,7 @@
         <v>25684.7441833333</v>
       </c>
     </row>
-    <row r="338" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>42736</v>
       </c>
@@ -26445,7 +26455,7 @@
         <v>25733.517316666701</v>
       </c>
     </row>
-    <row r="339" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>42767</v>
       </c>
@@ -26546,7 +26556,7 @@
         <v>24810.797512500001</v>
       </c>
     </row>
-    <row r="340" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>42795</v>
       </c>
@@ -26644,7 +26654,7 @@
         <v>23689.887175</v>
       </c>
     </row>
-    <row r="341" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>42826</v>
       </c>
@@ -26739,7 +26749,7 @@
         <v>22791.109812499999</v>
       </c>
     </row>
-    <row r="342" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>42856</v>
       </c>
@@ -26834,7 +26844,7 @@
         <v>21949.352350000001</v>
       </c>
     </row>
-    <row r="343" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>42887</v>
       </c>
@@ -26929,7 +26939,7 @@
         <v>20912.324349999999</v>
       </c>
     </row>
-    <row r="344" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>42917</v>
       </c>
@@ -27024,7 +27034,7 @@
         <v>20589.563050000001</v>
       </c>
     </row>
-    <row r="345" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>42948</v>
       </c>
@@ -27119,7 +27129,7 @@
         <v>20461.038862500001</v>
       </c>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>42979</v>
       </c>
@@ -27214,7 +27224,7 @@
         <v>20704.348487499999</v>
       </c>
     </row>
-    <row r="347" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>43009</v>
       </c>
@@ -27309,7 +27319,7 @@
         <v>19154.262737500001</v>
       </c>
     </row>
-    <row r="348" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>43040</v>
       </c>
@@ -27419,7 +27429,7 @@
         <v>20040.101675000002</v>
       </c>
     </row>
-    <row r="349" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>43070</v>
       </c>
@@ -27526,7 +27536,7 @@
         <v>20015.700799999999</v>
       </c>
     </row>
-    <row r="350" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>43101</v>
       </c>
@@ -27624,7 +27634,7 @@
         <v>21904.3433</v>
       </c>
     </row>
-    <row r="351" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>43132</v>
       </c>
@@ -27722,7 +27732,7 @@
         <v>22560.235475000001</v>
       </c>
     </row>
-    <row r="352" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>43160</v>
       </c>
@@ -27823,7 +27833,7 @@
         <v>20201.234690000001</v>
       </c>
     </row>
-    <row r="353" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>43191</v>
       </c>
@@ -27924,7 +27934,7 @@
         <v>20431.089650000002</v>
       </c>
     </row>
-    <row r="354" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>43221</v>
       </c>
@@ -28025,7 +28035,7 @@
         <v>21901.373575000001</v>
       </c>
     </row>
-    <row r="355" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>43252</v>
       </c>
@@ -28120,7 +28130,7 @@
         <v>21246.5196</v>
       </c>
     </row>
-    <row r="356" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>43282</v>
       </c>
@@ -28221,7 +28231,7 @@
         <v>21175.469925000001</v>
       </c>
     </row>
-    <row r="357" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>43313</v>
       </c>
@@ -28322,7 +28332,7 @@
         <v>21427.02145</v>
       </c>
     </row>
-    <row r="358" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>43344</v>
       </c>
@@ -28423,7 +28433,7 @@
         <v>21650.254083333301</v>
       </c>
     </row>
-    <row r="359" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>43374</v>
       </c>
@@ -28524,7 +28534,7 @@
         <v>21977.7431875</v>
       </c>
     </row>
-    <row r="360" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>43405</v>
       </c>
@@ -28634,7 +28644,7 @@
         <v>22304.460709999999</v>
       </c>
     </row>
-    <row r="361" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>43435</v>
       </c>
@@ -28741,7 +28751,7 @@
         <v>22932.064666666702</v>
       </c>
     </row>
-    <row r="362" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>43466</v>
       </c>
@@ -28842,7 +28852,7 @@
         <v>25009.107833333299</v>
       </c>
     </row>
-    <row r="363" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>43497</v>
       </c>
@@ -28943,7 +28953,7 @@
         <v>25671.8213875</v>
       </c>
     </row>
-    <row r="364" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>43525</v>
       </c>
@@ -29044,7 +29054,7 @@
         <v>26072.4689</v>
       </c>
     </row>
-    <row r="365" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>43556</v>
       </c>
@@ -29145,7 +29155,7 @@
         <v>28794.7366833333</v>
       </c>
     </row>
-    <row r="366" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>43586</v>
       </c>
@@ -29246,7 +29256,7 @@
         <v>30245.175674999999</v>
       </c>
     </row>
-    <row r="367" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>43617</v>
       </c>
@@ -29347,7 +29357,7 @@
         <v>30247.298362500002</v>
       </c>
     </row>
-    <row r="368" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>43647</v>
       </c>
@@ -29448,7 +29458,7 @@
         <v>33263.008300000001</v>
       </c>
     </row>
-    <row r="369" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>43678</v>
       </c>
@@ -29549,7 +29559,7 @@
         <v>43636.489824999997</v>
       </c>
     </row>
-    <row r="370" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>43709</v>
       </c>
@@ -29650,7 +29660,7 @@
         <v>40672.158487499997</v>
       </c>
     </row>
-    <row r="371" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>43739</v>
       </c>
@@ -29751,7 +29761,7 @@
         <v>41610.821062499999</v>
       </c>
     </row>
-    <row r="372" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>43770</v>
       </c>
@@ -29868,17 +29878,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30726D22-2CF7-4D50-95D1-98C30DDBF866}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -29886,7 +29896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -29894,7 +29904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -29902,7 +29912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -29910,7 +29920,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -29918,15 +29928,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -29934,15 +29944,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -29950,23 +29960,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -29974,7 +29984,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -29982,7 +29992,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -29990,7 +30000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -29998,7 +30008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -30006,7 +30016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -30014,7 +30024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -30022,39 +30032,39 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -30062,7 +30072,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -30070,7 +30080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -30078,7 +30088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
@@ -30086,7 +30096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -30094,7 +30104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -30102,7 +30112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -30110,7 +30120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -30118,39 +30128,39 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -30158,7 +30168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -30166,7 +30176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
